--- a/Nebula-CAD/Nebula-Components.xlsx
+++ b/Nebula-CAD/Nebula-Components.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elst\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elst\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34946117-011A-4560-8421-E1ACED3EA3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8160"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -41,9 +53,6 @@
     <t>ABX00033</t>
   </si>
   <si>
-    <t>MC25060V2-A99</t>
-  </si>
-  <si>
     <t>MF40100V2-1000U-A99</t>
   </si>
   <si>
@@ -69,12 +78,18 @@
   </si>
   <si>
     <t>Total estimated price for Nebula</t>
+  </si>
+  <si>
+    <t>MF25060V2-1000U-A99</t>
+  </si>
+  <si>
+    <t>Another option (noiseless) : Noctua NF-A4x10 5V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -104,10 +119,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -388,35 +409,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.68359375" customWidth="1"/>
-    <col min="2" max="2" width="14.578125" customWidth="1"/>
-    <col min="3" max="3" width="27.05078125" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -430,9 +451,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -444,37 +465,40 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -483,23 +507,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
       <c r="D7">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <f>SUM(D2:D7)</f>
